--- a/backend/web/public/docs/hiiphooray-tani/template-export-lazada/newPublish400602186105export1613147575173_0213-00-32-55.xlsx
+++ b/backend/web/public/docs/hiiphooray-tani/template-export-lazada/newPublish400602186105export1613147575173_0213-00-32-55.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anwar\AppData\Local\Temp\scp50985\home\pasarjar\public_html\backend\web\assets\public\docs\hiiphooray-tani\template-export-lazada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\public_html\kopkars\backend\web\public\docs\hiiphooray-tani\template-export-lazada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EAB7B5-2620-4BE2-8B1B-C0487B2149ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D2BF42-750D-4B9F-8847-37EBDB9EC693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="12" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="MakananIkan_hide" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="PeralatanKebun" sheetId="5" r:id="rId5"/>
     <sheet name="PeralatanKebun_hide" sheetId="6" state="hidden" r:id="rId6"/>
-    <sheet name="TanahPupukMulsa" sheetId="7" r:id="rId7"/>
+    <sheet name="TanahPupukMulsa" sheetId="21" r:id="rId7"/>
     <sheet name="TanahPupukMulsa_hide" sheetId="8" state="hidden" r:id="rId8"/>
     <sheet name="SistemPengairan" sheetId="9" r:id="rId9"/>
     <sheet name="SistemPengairan_hide" sheetId="10" state="hidden" r:id="rId10"/>
@@ -743,338 +743,310 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{A12D5C1F-DE24-41E7-B72A-BA5F9BCECAC4}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">Group No digunakan untuk mengidentifikasi apakah SKU tersebut akan di Kelompokkan menjadi 1 produk atau tidak. Untuk SKU yang dikelompokkan, isikan Group No dengan kode yang sama. Misal baris 1-3 adalah SKU yang akan di  kelompokkan, maka berikan kode yang sama untuk baris 1-3. Lakukan hal yang sama (dengan kode yang berbeda) untuk kelompok SKU lain. Tetap berikan kode di kolom Group No meskipun SKU tersebut tidak di Grouping. Misal di baris ke 4, 5, dan 6 adalah produk terpisah, maka berikan Kode yang berbeda untuk ke-3 baris tersebut. Jika Group No dibiarkan kosong maka sistem akan otomatis mengelompokkan SKU tersebut menjadi 1 produk.
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{5D429E47-7789-4797-936E-7D58C40D48E9}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Nama untuk produk Anda. Buat nama produk yang singkat dan jelas (sekitar 20-40 karakter). Cantumkan informasi seperti Merek, Model, dan Poin Kunci Penjualan, dan tidak mengulangi kata kunci supaya produk Anda bisa tampil di halaman pencarian.</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{5E841AE9-F3C0-48C1-B902-379C60E632AC}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Gambar Produk tampil sebagai gambar utama produk di aplikasi Customer.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{67D67AEA-8FBF-460E-AA7F-4D5257DD95A7}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Gambar Produk tampil sebagai gambar utama produk di aplikasi Customer.</t>
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{A66658FB-6207-4147-8AA8-7A5EB0A705FF}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Gambar Produk tampil sebagai gambar utama produk di aplikasi Customer.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{4FE52231-F4ED-4325-9497-08ECD8F7940F}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Gambar Produk tampil sebagai gambar utama produk di aplikasi Customer.</t>
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{DAB4BC90-2980-4054-9E12-EDAD1FE47ADD}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Gambar Produk tampil sebagai gambar utama produk di aplikasi Customer.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{4C28C43F-5F14-4361-A0C3-A21B8E0EFCEB}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Gambar Produk tampil sebagai gambar utama produk di aplikasi Customer.</t>
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{C202474B-CD6E-4561-A657-6727973FEBB5}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Gambar Produk tampil sebagai gambar utama produk di aplikasi Customer.</t>
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{05F14886-6D21-48BD-85C2-8D3399B6A15F}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Gambar Produk tampil sebagai gambar utama produk di aplikasi Customer.</t>
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000B000000}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{524A6207-002C-463F-B51E-3C67B6879AB3}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Gambar Showcase adalah gambar yang akan tampil untuk merepresentasikan produk Anda di halaman Rekomendasi, Promosi, dan lain-lain. Produk dengan kualifikasi yang bagus akan mendapatkan trafik lebih.</t>
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000C000000}">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{938E2466-12BA-4AC9-B534-4FBF187D69BB}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Gambar Showcase adalah gambar yang akan tampil untuk merepresentasikan produk Anda di halaman Rekomendasi, Promosi, dan lain-lain. Produk dengan kualifikasi yang bagus akan mendapatkan trafik lebih.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Masukkan deskripsi produk Anda di sini. Masukkan semua informasi mengenai produk dengan sangat jelas. Anda bisa memasukkan deskripsi dalam bentuk Teks atau Kode HTML.</t>
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000E000000}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{A6EF871E-F5B7-4303-904D-C7099FB099ED}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Masukkan deskripsi produk Anda di sini. Masukkan semua informasi mengenai produk dengan sangat jelas. Anda bisa memasukkan deskripsi dalam bentuk Teks atau Kode HTML.</t>
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000F000000}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{0AF9008F-BA46-49B7-8BE7-D06A7ED41FA1}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Masukkan item apa saja yang akan diterima Customer jika membeli produk ini. Contoh untuk produk Handphone; 1 Handphone, 1 Charger, 1 Headset.</t>
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000010000000}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{A9E83339-E4D3-4245-B3DD-8492C4219EA8}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Kebijakan garansi, mencakup bagaimana proses mengklaim garansi dan persyaratan yang Anda terapkan.</t>
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000011000000}">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{952BC5B4-B89E-4754-9195-8F0C8FC08D37}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Masa berlaku garansi yang Anda berikan.</t>
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000012000000}">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{179A80A7-4E5A-434D-9087-4A5CBB046513}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Jenis garansi yang Anda berikan.</t>
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000013000000}">
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{BD82D5B4-8B94-4A3F-8444-5FBFF24FE5B3}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Silahkan isi kolom ini  jika produk yang Anda jual merupakan produk berbahaya. Hal ini bertujuan untuk membantu tim Logistik/Pengiriman dalam menangani paket Anda. Contoh produk berbahaya; Baterai, Parfum, Oils, Powerbank, Tiner.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{256EEF42-76FD-48C6-AB57-5E9C3B47D619}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Layanan Pengiriman Express - Masukkan jika toko Anda memiliki layanan pengiriman Express supaya Customer bisa memilih layanan pengiriman yang mereka inginkan pada saat membeli produk.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{51055FFB-D1A4-45B7-BC79-8250EB9D3DEE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Layanan Pengiriman Instan - Masukkan jika toko Anda memiliki layanan pengiriman Instan supaya Customer bisa memilih layanan pengiriman yang mereka inginkan pada saat membeli produk.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ2" authorId="0" shapeId="0" xr:uid="{CB776648-F338-4521-AD52-0741D1DC55F7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Berat paket (KG) adalah berat produk setelah dibungkus. Pastikan Anda memasukkan berat yang benar karena ini akan mempengaruhi ongkos pemngiriman yang akan dibayarkan Customer.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000014000000}">
+    <comment ref="AS2" authorId="0" shapeId="0" xr:uid="{C7920A9D-720D-44A1-B529-79FE978B5FE6}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dimensi Paket - Panjang, Lebar, dan Tinggi paket (CM) produk setelah dibungkus. Pastikan Anda memasukkan dimensi yang benar karena ini akan mempengaruhi ongkos pemngiriman yang akan dibayarkan Customer.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dimensi Paket - Panjang, Lebar, dan Tinggi paket (CM) produk setelah dibungkus. Pastikan Anda memasukkan dimensi yang benar karena ini akan mempengaruhi ongkos pemngiriman yang akan dibayarkan Customer.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Dimensi Paket - Panjang, Lebar, dan Tinggi paket (CM) produk setelah dibungkus. Pastikan Anda memasukkan dimensi yang benar karena ini akan mempengaruhi ongkos pemngiriman yang akan dibayarkan Customer.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Silahkan isi kolom ini  jika produk yang Anda jual merupakan produk berbahaya. Hal ini bertujuan untuk membantu tim Logistik/Pengiriman dalam menangani paket Anda. Contoh produk berbahaya; Baterai, Parfum, Oils, Powerbank, Tiner.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AS2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
+            <scheme val="minor"/>
           </rPr>
           <t>Harga jual produk (tanpa diskon).</t>
         </r>
@@ -3131,7 +3103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4311" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4311" uniqueCount="721">
   <si>
     <t>Template Introduction</t>
   </si>
@@ -5328,12 +5300,24 @@
   <si>
     <t>Label</t>
   </si>
+  <si>
+    <t>*Nama Produk</t>
+  </si>
+  <si>
+    <t>*Package Height (cm)</t>
+  </si>
+  <si>
+    <t>*Package Width (cm)</t>
+  </si>
+  <si>
+    <t>*Package Length (cm)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5456,8 +5440,38 @@
       <color indexed="12"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5516,6 +5530,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF57D3E"/>
         <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF425469"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3972C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F9BD2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AAD50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC035"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF57D3E"/>
       </patternFill>
     </fill>
   </fills>
@@ -5635,7 +5679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5698,20 +5742,14 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5728,13 +5766,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5753,6 +5797,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6154,124 +6225,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="112.95" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="16.05" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" ht="16.05" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="16.05" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="28.95" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" ht="135" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7" ht="22.05" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" ht="16.05" customHeight="1">
       <c r="A11" s="4" t="s">
@@ -6280,12 +6351,12 @@
       <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
@@ -6297,12 +6368,12 @@
       <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="7" t="s">
         <v>22</v>
       </c>
@@ -6312,12 +6383,12 @@
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
       <c r="G13" s="7" t="s">
         <v>25</v>
       </c>
@@ -6327,12 +6398,12 @@
       <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="7" t="s">
         <v>25</v>
       </c>
@@ -6342,12 +6413,12 @@
       <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="7" t="s">
         <v>22</v>
       </c>
@@ -6357,12 +6428,12 @@
       <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="7" t="s">
         <v>32</v>
       </c>
@@ -6374,12 +6445,12 @@
       <c r="B17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="7" t="s">
         <v>25</v>
       </c>
@@ -6389,12 +6460,12 @@
       <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="11" t="s">
         <v>22</v>
       </c>
@@ -6406,10 +6477,10 @@
       <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="11" t="s">
         <v>22</v>
       </c>
@@ -6419,10 +6490,10 @@
       <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="11" t="s">
         <v>22</v>
       </c>
@@ -6432,10 +6503,10 @@
       <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
       <c r="G21" s="11" t="s">
         <v>22</v>
       </c>
@@ -6447,10 +6518,10 @@
       <c r="B22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="7" t="s">
         <v>25</v>
       </c>
@@ -6514,12 +6585,12 @@
       <c r="B27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
       <c r="G27" s="11" t="s">
         <v>32</v>
       </c>
@@ -6529,12 +6600,12 @@
       <c r="B28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="7" t="s">
         <v>25</v>
       </c>
@@ -6544,12 +6615,12 @@
       <c r="B29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="7" t="s">
         <v>22</v>
       </c>
@@ -6559,10 +6630,10 @@
       <c r="B30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
       <c r="G30" s="7" t="s">
         <v>22</v>
       </c>
@@ -6572,10 +6643,10 @@
       <c r="B31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
       <c r="G31" s="7" t="s">
         <v>22</v>
       </c>
@@ -6585,12 +6656,12 @@
       <c r="B32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="7" t="s">
         <v>22</v>
       </c>
@@ -6600,10 +6671,10 @@
       <c r="B33" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="7" t="s">
         <v>25</v>
       </c>
@@ -6613,10 +6684,10 @@
       <c r="B34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="7" t="s">
         <v>22</v>
       </c>
@@ -6626,10 +6697,10 @@
       <c r="B35" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
       <c r="G35" s="7" t="s">
         <v>22</v>
       </c>
@@ -6639,10 +6710,10 @@
       <c r="B36" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
       <c r="G36" s="7" t="s">
         <v>22</v>
       </c>
@@ -6652,10 +6723,10 @@
       <c r="B37" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
       <c r="G37" s="7" t="s">
         <v>22</v>
       </c>
@@ -6665,10 +6736,10 @@
       <c r="B38" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
       <c r="G38" s="7" t="s">
         <v>22</v>
       </c>
@@ -6678,10 +6749,10 @@
       <c r="B39" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
       <c r="G39" s="7" t="s">
         <v>22</v>
       </c>
@@ -6691,10 +6762,10 @@
       <c r="B40" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
       <c r="G40" s="7" t="s">
         <v>22</v>
       </c>
@@ -6704,46 +6775,16 @@
       <c r="B41" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
       <c r="G41" s="7" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
     <mergeCell ref="C40:F40"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="C35:F35"/>
@@ -6751,6 +6792,36 @@
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -16807,7 +16878,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -16886,8 +16957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -21436,30 +21507,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE848FF8-EFE7-4E74-BDF0-7F97978B928A}">
   <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28" style="17" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="17" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="0" style="17" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="17" customWidth="1"/>
-    <col min="4" max="13" width="35" style="17" customWidth="1"/>
-    <col min="14" max="15" width="11.5546875" style="17" hidden="1" customWidth="1"/>
-    <col min="16" max="18" width="28" style="17" customWidth="1"/>
-    <col min="19" max="23" width="35" style="17" customWidth="1"/>
-    <col min="24" max="24" width="32" style="17" customWidth="1"/>
-    <col min="25" max="25" width="34" style="17" customWidth="1"/>
-    <col min="26" max="30" width="35" style="17" customWidth="1"/>
-    <col min="31" max="31" width="32" style="17" customWidth="1"/>
-    <col min="32" max="32" width="28" style="17" customWidth="1"/>
-    <col min="33" max="34" width="11.5546875" style="17" hidden="1" customWidth="1"/>
-    <col min="35" max="42" width="28" style="17" customWidth="1"/>
-    <col min="43" max="43" width="35" style="17" customWidth="1"/>
+    <col min="4" max="12" width="35" style="17" customWidth="1"/>
+    <col min="13" max="14" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="28" style="17" customWidth="1"/>
+    <col min="17" max="17" width="35" style="17" customWidth="1"/>
+    <col min="18" max="18" width="28" style="17" customWidth="1"/>
+    <col min="19" max="22" width="35" style="17" customWidth="1"/>
+    <col min="23" max="23" width="32" style="17" customWidth="1"/>
+    <col min="24" max="24" width="34" style="17" customWidth="1"/>
+    <col min="25" max="27" width="35" style="17" customWidth="1"/>
+    <col min="28" max="28" width="32" style="17" customWidth="1"/>
+    <col min="29" max="29" width="28" style="17" customWidth="1"/>
+    <col min="30" max="30" width="0" style="17" hidden="1" customWidth="1"/>
+    <col min="31" max="38" width="28" style="17" customWidth="1"/>
+    <col min="39" max="43" width="35" style="17" customWidth="1"/>
     <col min="44" max="44" width="30" style="17" customWidth="1"/>
     <col min="45" max="45" width="28" style="17" customWidth="1"/>
     <col min="46" max="46" width="32" style="17" customWidth="1"/>
@@ -21467,367 +21540,315 @@
     <col min="49" max="49" width="28" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="21" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="37" t="s">
+    <row r="1" spans="1:49" ht="15.6">
+      <c r="A1" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="P1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="Q1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="R1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="S1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="T1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="U1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="V1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="W1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="40" t="s">
+      <c r="Y1" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="Z1" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="AB1" s="40" t="s">
+      <c r="AA1" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="AC1" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD1" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE1" s="35" t="s">
+      <c r="AB1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AF1" s="35" t="s">
+      <c r="AC1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="35" t="s">
+      <c r="AD1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AH1" s="35" t="s">
+      <c r="AE1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AI1" s="35" t="s">
+      <c r="AF1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AJ1" s="35" t="s">
+      <c r="AG1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AK1" s="35" t="s">
+      <c r="AH1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AL1" s="35" t="s">
+      <c r="AI1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AM1" s="35" t="s">
+      <c r="AJ1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AN1" s="35" t="s">
+      <c r="AK1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AO1" s="35" t="s">
+      <c r="AL1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AP1" s="35" t="s">
+      <c r="AM1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AQ1" s="35" t="s">
+      <c r="AN1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AR1" s="35" t="s">
+      <c r="AO1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AS1" s="35" t="s">
+      <c r="AP1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AT1" s="35" t="s">
+      <c r="AQ1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AU1" s="35" t="s">
+      <c r="AR1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AV1" s="35" t="s">
+      <c r="AS1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="AW1" s="35" t="s">
+      <c r="AT1" s="46" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:49" ht="21" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="AU1" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV1" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW1" s="46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" ht="15.6">
+      <c r="A2" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="48" t="s">
+        <v>717</v>
+      </c>
+      <c r="D2" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="18" t="s">
+      <c r="M2" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="N2" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="O2" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="P2" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="Q2" s="49" t="s">
+        <v>527</v>
+      </c>
+      <c r="R2" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="T2" s="18" t="s">
+      <c r="S2" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="T2" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="U2" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="V2" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="W2" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="X2" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="Y2" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z2" s="47" t="s">
+        <v>714</v>
+      </c>
+      <c r="AA2" s="47" t="s">
+        <v>715</v>
+      </c>
+      <c r="AB2" s="47" t="s">
+        <v>528</v>
+      </c>
+      <c r="AC2" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD2" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE2" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF2" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG2" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH2" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI2" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ2" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK2" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL2" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM2" s="47" t="s">
+        <v>498</v>
+      </c>
+      <c r="AN2" s="48" t="s">
+        <v>718</v>
+      </c>
+      <c r="AO2" s="48" t="s">
+        <v>719</v>
+      </c>
+      <c r="AP2" s="48" t="s">
+        <v>720</v>
+      </c>
+      <c r="AQ2" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="AA2" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB2" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC2" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE2" s="18" t="s">
-        <v>528</v>
-      </c>
-      <c r="AF2" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG2" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH2" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI2" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ2" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK2" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL2" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AM2" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN2" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO2" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="AP2" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="AQ2" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="AR2" s="19" t="s">
+      <c r="AR2" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="AS2" s="19" t="s">
+      <c r="AS2" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="AT2" s="18" t="s">
+      <c r="AT2" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="AU2" s="18" t="s">
+      <c r="AU2" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="AV2" s="18" t="s">
+      <c r="AV2" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="AW2" s="18" t="s">
+      <c r="AW2" s="47" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AE1:AW1"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AD1"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AW1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
-          <x14:formula1>
-            <xm:f>OFFSET(TanahPupukMulsa_hide!$S$7,0,0,9,1)</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>S3:S1002</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
-          <x14:formula1>
-            <xm:f>OFFSET(TanahPupukMulsa_hide!$X$7,0,0,24,1)</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>X3:X1002</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000002000000}">
-          <x14:formula1>
-            <xm:f>OFFSET(TanahPupukMulsa_hide!$Y$7,0,0,9,1)</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>Y3:Y1002</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-000003000000}">
-          <x14:formula1>
-            <xm:f>OFFSET(TanahPupukMulsa_hide!$AD$7,0,0,4,1)</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>AD3:AD1002</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0600-000004000000}">
-          <x14:formula1>
-            <xm:f>OFFSET(TanahPupukMulsa_hide!$AF$7,0,0,102,1)</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>AF3:AF1002</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
